--- a/Tables/Location.xlsx
+++ b/Tables/Location.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD455D54-47F3-4302-9F8A-CE93D3192B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91378B7-57D7-4744-A79E-1E2F693531DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2E6AD554-8323-4E6D-828E-26C24A5BC117}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2E6AD554-8323-4E6D-828E-26C24A5BC117}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Locations!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Locations!$B$1:$H$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>String</t>
   </si>
@@ -113,21 +113,6 @@
     <t>An identifier for the set of location information (data associated with dcterms:Location). May be a global unique identifier or an identifier specific to the data set.</t>
   </si>
   <si>
-    <t>locationID*</t>
-  </si>
-  <si>
-    <t>Integer (need to check this)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ScienceBase ID number of the dataset. This is the key to link locations to a specific dataset. </t>
-  </si>
-  <si>
-    <t>An identifier for the set of data. May be a global unique identifier or an identifier specific to a collection or institution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datasetID </t>
-  </si>
-  <si>
     <t>REQUIRED</t>
   </si>
   <si>
@@ -147,6 +132,9 @@
   </si>
   <si>
     <t>TERM</t>
+  </si>
+  <si>
+    <t>locationID</t>
   </si>
 </sst>
 </file>
@@ -501,181 +489,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96856EE3-B00E-42EE-9BE9-07B0128EB596}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="78.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.36328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="78.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="116" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="77" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="77" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
+    <row r="4" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G12" xr:uid="{4413567D-7397-4126-9A23-BFCD3CC2E7ED}"/>
+  <autoFilter ref="B1:H11" xr:uid="{4413567D-7397-4126-9A23-BFCD3CC2E7ED}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>